--- a/DataEntry/Data/Documents/Config.xlsx
+++ b/DataEntry/Data/Documents/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A92B0-DE69-4B98-9462-AB923856EDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED74387-CC28-47E6-B4DB-E93229AC36DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -60,9 +60,6 @@
     <t>https://www.ilovepdf.com/merge_pdf</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>https://efilingigr.maharashtra.gov.in/ereg/</t>
   </si>
   <si>
@@ -72,30 +69,9 @@
     <t>SBIePay</t>
   </si>
   <si>
-    <t>ChallanPageURL</t>
-  </si>
-  <si>
     <t>https://gras.mahakosh.gov.in/echallan/igr/</t>
   </si>
   <si>
-    <t>ChallanPageURL2</t>
-  </si>
-  <si>
-    <t>https://gras.mahakosh.gov.in/echallan/igr/challan/views/frmBusinessInfoNewEntry.php</t>
-  </si>
-  <si>
-    <t>DFilePath</t>
-  </si>
-  <si>
-    <t>C:\Users\laxman.deokate\Documents\UiPath\DataEntry - Copy\Data\Documents\PV</t>
-  </si>
-  <si>
-    <t>PropertyDetails</t>
-  </si>
-  <si>
-    <t>C:\Users\laxman.deokate\Documents\UiPath\DataEntry - Copy\Data\Documents\PropertyDetails</t>
-  </si>
-  <si>
     <t>Renewal_IndexII</t>
   </si>
   <si>
@@ -135,12 +111,6 @@
     <t>Swapna@123</t>
   </si>
   <si>
-    <t>FilePath11</t>
-  </si>
-  <si>
-    <t>C:\Users\laxma\OneDrive\Documents\UiPath\Check_Registered\Data</t>
-  </si>
-  <si>
     <t>PartyDetailsSheet</t>
   </si>
   <si>
@@ -268,6 +238,24 @@
   </si>
   <si>
     <t>retryCaptcha</t>
+  </si>
+  <si>
+    <t>DHCPageURL</t>
+  </si>
+  <si>
+    <t>https://pay2igr.igrmaharashtra.gov.in/PTI/</t>
+  </si>
+  <si>
+    <t>GRNPageURL</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>DHC</t>
   </si>
 </sst>
 </file>
@@ -309,11 +297,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,16 +584,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z991"/>
+  <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="82" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -608,7 +602,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -642,184 +636,177 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
+      <c r="B2" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
+        <v>66</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
+        <v>75</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
+        <v>74</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
+        <v>72</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="B23" s="4">
+        <v>9011092282</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26">
-        <v>9011092282</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="4">
+        <v>300</v>
+      </c>
+    </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1778,13 +1765,9 @@
     <row r="985" ht="14.25" customHeight="1"/>
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" location="no-back-button" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId1" location="no-back-button" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1795,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
@@ -1843,143 +1826,143 @@
     </row>
     <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1987,7 +1970,7 @@
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -2988,13 +2971,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>

--- a/DataEntry/Data/Documents/Config.xlsx
+++ b/DataEntry/Data/Documents/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED74387-CC28-47E6-B4DB-E93229AC36DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E61266F-665D-497E-B041-E3E755B4A7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,15 +36,9 @@
     <t>DocsPath</t>
   </si>
   <si>
-    <t>FileName</t>
-  </si>
-  <si>
     <t>Token.xlsx</t>
   </si>
   <si>
-    <t>SheetName</t>
-  </si>
-  <si>
     <t>Sheet1</t>
   </si>
   <si>
@@ -256,6 +250,12 @@
   </si>
   <si>
     <t>DHC</t>
+  </si>
+  <si>
+    <t>TokenFileName</t>
+  </si>
+  <si>
+    <t>TokenSheetName</t>
   </si>
 </sst>
 </file>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -637,137 +637,137 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" s="4">
         <v>9011092282</v>
@@ -775,25 +775,25 @@
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" s="4">
         <v>1000</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B29" s="4">
         <v>300</v>
@@ -1826,143 +1826,143 @@
     </row>
     <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
         <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -2971,13 +2971,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>

--- a/DataEntry/Data/Documents/Config.xlsx
+++ b/DataEntry/Data/Documents/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E61266F-665D-497E-B041-E3E755B4A7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FA9889-B537-4DCD-95C7-68D83B5E2373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>TokenSheetName</t>
+  </si>
+  <si>
+    <t>ComplaintEmail</t>
+  </si>
+  <si>
+    <t>complaint@igrmaharashtra.gov.in</t>
   </si>
 </sst>
 </file>
@@ -586,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -807,7 +813,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
@@ -1778,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/DataEntry/Data/Documents/Config.xlsx
+++ b/DataEntry/Data/Documents/Config.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FA9889-B537-4DCD-95C7-68D83B5E2373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -18,6 +12,19 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -36,16 +43,61 @@
     <t>DocsPath</t>
   </si>
   <si>
+    <t>C:\Users\laxman.deokate\Documents\UiPath\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
+  </si>
+  <si>
+    <t>Downloads</t>
+  </si>
+  <si>
+    <t>C:\Users\laxman.deokate\Downloads</t>
+  </si>
+  <si>
+    <t>TokenFileName</t>
+  </si>
+  <si>
     <t>Token.xlsx</t>
   </si>
   <si>
+    <t>DataEntryFileName</t>
+  </si>
+  <si>
+    <t>DataEntry.xlsx</t>
+  </si>
+  <si>
+    <t>TokenSheetName</t>
+  </si>
+  <si>
     <t>Sheet1</t>
   </si>
   <si>
-    <t>Downloads</t>
-  </si>
-  <si>
-    <t>C:\Users\laxma\Downloads</t>
+    <t>ChallanFileName</t>
+  </si>
+  <si>
+    <t>ChallanInfo.xlsx</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://efilingigr.maharashtra.gov.in/ereg/</t>
+  </si>
+  <si>
+    <t>GRNPageURL</t>
+  </si>
+  <si>
+    <t>https://gras.mahakosh.gov.in/echallan/igr/</t>
+  </si>
+  <si>
+    <t>DHCPageURL</t>
+  </si>
+  <si>
+    <t>https://pay2igr.igrmaharashtra.gov.in/PTI/</t>
+  </si>
+  <si>
+    <t>PaymentPageURL</t>
+  </si>
+  <si>
+    <t>SBIePay</t>
   </si>
   <si>
     <t>ilovepdf</t>
@@ -54,25 +106,16 @@
     <t>https://www.ilovepdf.com/merge_pdf</t>
   </si>
   <si>
-    <t>https://efilingigr.maharashtra.gov.in/ereg/</t>
-  </si>
-  <si>
-    <t>PaymentPageURL</t>
-  </si>
-  <si>
-    <t>SBIePay</t>
-  </si>
-  <si>
-    <t>https://gras.mahakosh.gov.in/echallan/igr/</t>
-  </si>
-  <si>
     <t>Renewal_IndexII</t>
   </si>
   <si>
     <t>renewal</t>
   </si>
   <si>
-    <t>DataEntry.xlsx</t>
+    <t>IndexIISheet</t>
+  </si>
+  <si>
+    <t>IndexII</t>
   </si>
   <si>
     <t>RentDetailsSheet</t>
@@ -81,34 +124,43 @@
     <t>RentDetails</t>
   </si>
   <si>
+    <t>PartyDetailsSheet</t>
+  </si>
+  <si>
+    <t>PartyDetails</t>
+  </si>
+  <si>
     <t>IdentifiersSheet</t>
   </si>
   <si>
     <t>Identifiers</t>
   </si>
   <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Swapna@123</t>
+  </si>
+  <si>
     <t>newTenant</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>IndexIISheet</t>
-  </si>
-  <si>
-    <t>IndexII</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Swapna@123</t>
-  </si>
-  <si>
-    <t>PartyDetailsSheet</t>
-  </si>
-  <si>
-    <t>PartyDetails</t>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>DHC</t>
+  </si>
+  <si>
+    <t>ComplaintEmail</t>
+  </si>
+  <si>
+    <t>complaint@igrmaharashtra.gov.in</t>
   </si>
   <si>
     <t>MaxRetryNumber</t>
@@ -207,6 +259,9 @@
     <t>WaitTime</t>
   </si>
   <si>
+    <t>retryCaptcha</t>
+  </si>
+  <si>
     <t>Asset</t>
   </si>
   <si>
@@ -214,61 +269,19 @@
   </si>
   <si>
     <t>Description (Assets will always overwrite other config)</t>
-  </si>
-  <si>
-    <t>ChallanFileName</t>
-  </si>
-  <si>
-    <t>ChallanInfo.xlsx</t>
-  </si>
-  <si>
-    <t>D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
-  </si>
-  <si>
-    <t>DataEntryFileName</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>retryCaptcha</t>
-  </si>
-  <si>
-    <t>DHCPageURL</t>
-  </si>
-  <si>
-    <t>https://pay2igr.igrmaharashtra.gov.in/PTI/</t>
-  </si>
-  <si>
-    <t>GRNPageURL</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>DHC</t>
-  </si>
-  <si>
-    <t>TokenFileName</t>
-  </si>
-  <si>
-    <t>TokenSheetName</t>
-  </si>
-  <si>
-    <t>ComplaintEmail</t>
-  </si>
-  <si>
-    <t>complaint@igrmaharashtra.gov.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,16 +295,353 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -299,9 +649,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -309,24 +901,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -584,31 +1220,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="82" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="82" style="3" customWidth="1"/>
+    <col min="3" max="3" width="81.4285714285714" customWidth="1"/>
+    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -638,191 +1274,191 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>66</v>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1" spans="1:2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
+    <row r="6" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="7" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
+    <row r="11" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>65</v>
+    <row r="12" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
+    <row r="13" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
+    <row r="14" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>71</v>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
+    <row r="18" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
+    <row r="19" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
+    <row r="20" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
+    <row r="21" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <v>9011092282</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>28</v>
+    <row r="24" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="4">
-        <v>9011092282</v>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>26</v>
+    <row r="29" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3">
+        <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>22</v>
+    <row r="30" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1780,30 +2416,32 @@
     <row r="987" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" location="no-back-button" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId1" location="no-back-button" display="SBIePay"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.4285714285714" customWidth="1"/>
+    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1837,171 +2475,171 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" ht="30" spans="1:3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" ht="45" spans="1:3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25" customHeight="1" spans="1:3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="30" spans="1:3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2960,37 +3598,39 @@
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="30.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="60.2857142857143" customWidth="1"/>
+    <col min="4" max="26" width="65.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3015,21 +3655,21 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" ht="14.25" customHeight="1"/>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4016,5 +4656,6 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataEntry/Data/Documents/Config.xlsx
+++ b/DataEntry/Data/Documents/Config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1596C949-01C9-4D1E-A23F-D252EB7DEAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -12,19 +18,6 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -43,15 +36,9 @@
     <t>DocsPath</t>
   </si>
   <si>
-    <t>C:\Users\laxman.deokate\Documents\UiPath\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
-  </si>
-  <si>
     <t>Downloads</t>
   </si>
   <si>
-    <t>C:\Users\laxman.deokate\Downloads</t>
-  </si>
-  <si>
     <t>TokenFileName</t>
   </si>
   <si>
@@ -160,9 +147,6 @@
     <t>ComplaintEmail</t>
   </si>
   <si>
-    <t>complaint@igrmaharashtra.gov.in</t>
-  </si>
-  <si>
     <t>MaxRetryNumber</t>
   </si>
   <si>
@@ -269,19 +253,22 @@
   </si>
   <si>
     <t>Description (Assets will always overwrite other config)</t>
+  </si>
+  <si>
+    <t>D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
+  </si>
+  <si>
+    <t>C:\Users\laxma\Downloads</t>
+  </si>
+  <si>
+    <t>complaint11@igrmaharashtra.gov.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -295,353 +282,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -649,253 +299,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -907,62 +315,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1220,27 +585,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="82" style="3" customWidth="1"/>
-    <col min="3" max="3" width="81.4285714285714" customWidth="1"/>
-    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,191 +639,191 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:2">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A23" t="s">
-        <v>35</v>
       </c>
       <c r="B23" s="3">
         <v>9011092282</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:2">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
         <v>38</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A28" t="s">
-        <v>40</v>
       </c>
       <c r="B28" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1" spans="1:2">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1" spans="1:2">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2416,32 +1781,30 @@
     <row r="987" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" location="no-back-button" display="SBIePay"/>
+    <hyperlink ref="B13" r:id="rId1" location="no-back-button" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.4285714285714" customWidth="1"/>
-    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2475,171 +1838,171 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="30" spans="1:3">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="3" ht="45" spans="1:3">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
         <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A14" t="s">
-        <v>69</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:3">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="30" spans="1:3">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:2">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:2">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -3598,39 +2961,37 @@
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="30.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="60.2857142857143" customWidth="1"/>
-    <col min="4" max="26" width="65.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3655,21 +3016,25 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4656,6 +4021,5 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataEntry/Data/Documents/Config.xlsx
+++ b/DataEntry/Data/Documents/Config.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1596C949-01C9-4D1E-A23F-D252EB7DEAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -18,6 +12,19 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -36,9 +43,15 @@
     <t>DocsPath</t>
   </si>
   <si>
+    <t>C:\Users\laxman.deokate\Documents\UiPath\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
+  </si>
+  <si>
     <t>Downloads</t>
   </si>
   <si>
+    <t>C:\Users\laxman.deokate\Downloads</t>
+  </si>
+  <si>
     <t>TokenFileName</t>
   </si>
   <si>
@@ -147,6 +160,9 @@
     <t>ComplaintEmail</t>
   </si>
   <si>
+    <t>complaint11@igrmaharashtra.gov.in</t>
+  </si>
+  <si>
     <t>MaxRetryNumber</t>
   </si>
   <si>
@@ -253,22 +269,19 @@
   </si>
   <si>
     <t>Description (Assets will always overwrite other config)</t>
-  </si>
-  <si>
-    <t>D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
-  </si>
-  <si>
-    <t>C:\Users\laxma\Downloads</t>
-  </si>
-  <si>
-    <t>complaint11@igrmaharashtra.gov.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,16 +295,353 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -299,35 +649,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -585,27 +1221,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="82" style="3" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="82" style="2" customWidth="1"/>
+    <col min="3" max="3" width="81.4285714285714" customWidth="1"/>
+    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,191 +1275,191 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>77</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="7" ht="14.25" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+    <row r="14" ht="14.25" customHeight="1" spans="1:2">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1" spans="1:2">
       <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+    <row r="20" ht="14.25" customHeight="1" spans="1:2">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+    <row r="21" ht="14.25" customHeight="1" spans="1:2">
       <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="3">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2">
         <v>9011092282</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1">
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1" spans="1:2">
       <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1" spans="1:2">
       <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+    <row r="29" ht="14.25" customHeight="1" spans="1:2">
       <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="3">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1">
+    <row r="30" ht="14.25" customHeight="1" spans="1:2">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1781,30 +2417,32 @@
     <row r="987" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" location="no-back-button" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId1" location="no-back-button" display="SBIePay"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.4285714285714" customWidth="1"/>
+    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1838,171 +2476,171 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" ht="30" spans="1:3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" ht="45" spans="1:3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25" customHeight="1" spans="1:3">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="30" spans="1:3">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>71</v>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2961,37 +3599,39 @@
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="30.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="60.2857142857143" customWidth="1"/>
+    <col min="4" max="26" width="65.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3016,25 +3656,25 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="3"/>
+    <row r="2" ht="14.25" customHeight="1"/>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1" spans="1:1">
+      <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="3"/>
+    <row r="5" ht="14.25" customHeight="1" spans="1:1">
+      <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4021,5 +4661,6 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataEntry/Data/Documents/Config.xlsx
+++ b/DataEntry/Data/Documents/Config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9981215-FC83-451C-9AF4-BABDBF2370BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -12,24 +18,11 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -43,37 +36,217 @@
     <t>DocsPath</t>
   </si>
   <si>
-    <t>C:\Users\laxman.deokate\Documents\UiPath\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
-  </si>
-  <si>
     <t>Downloads</t>
   </si>
   <si>
-    <t>C:\Users\laxman.deokate\Downloads</t>
-  </si>
-  <si>
-    <t>TokenFileName</t>
-  </si>
-  <si>
-    <t>Token.xlsx</t>
-  </si>
-  <si>
     <t>DataEntryFileName</t>
   </si>
   <si>
     <t>DataEntry.xlsx</t>
   </si>
   <si>
-    <t>TokenSheetName</t>
-  </si>
-  <si>
-    <t>Sheet1</t>
-  </si>
-  <si>
-    <t>ChallanFileName</t>
-  </si>
-  <si>
-    <t>ChallanInfo.xlsx</t>
+    <t>GRNPageURL</t>
+  </si>
+  <si>
+    <t>https://gras.mahakosh.gov.in/echallan/igr/</t>
+  </si>
+  <si>
+    <t>DHCPageURL</t>
+  </si>
+  <si>
+    <t>https://pay2igr.igrmaharashtra.gov.in/PTI/</t>
+  </si>
+  <si>
+    <t>PaymentPageURL</t>
+  </si>
+  <si>
+    <t>SBIePay</t>
+  </si>
+  <si>
+    <t>ilovepdf</t>
+  </si>
+  <si>
+    <t>https://www.ilovepdf.com/merge_pdf</t>
+  </si>
+  <si>
+    <t>Renewal_IndexII</t>
+  </si>
+  <si>
+    <t>renewal</t>
+  </si>
+  <si>
+    <t>IndexIISheet</t>
+  </si>
+  <si>
+    <t>IndexII</t>
+  </si>
+  <si>
+    <t>RentDetailsSheet</t>
+  </si>
+  <si>
+    <t>RentDetails</t>
+  </si>
+  <si>
+    <t>PartyDetailsSheet</t>
+  </si>
+  <si>
+    <t>PartyDetails</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Swapna@123</t>
+  </si>
+  <si>
+    <t>newTenant</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>DHC</t>
+  </si>
+  <si>
+    <t>ComplaintEmail</t>
+  </si>
+  <si>
+    <t>complaint11@igrmaharashtra.gov.in</t>
+  </si>
+  <si>
+    <t>MaxRetryNumber</t>
+  </si>
+  <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
+  </si>
+  <si>
+    <t>MaxConsecutiveSystemExceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
+  </si>
+  <si>
+    <t>ExScreenshotsFolderPath</t>
+  </si>
+  <si>
+    <t>Exceptions_Screenshots</t>
+  </si>
+  <si>
+    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
+  </si>
+  <si>
+    <t>LogMessage_GetTransactionData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processing Transaction Number: </t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data.</t>
+  </si>
+  <si>
+    <t>LogMessage_GetTransactionDataError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
+  </si>
+  <si>
+    <t>Static part of logging message. Error retrieving Transaction Data.</t>
+  </si>
+  <si>
+    <t>LogMessage_Success</t>
+  </si>
+  <si>
+    <t>Transaction Successful.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful.</t>
+  </si>
+  <si>
+    <t>LogMessage_BusinessRuleException</t>
+  </si>
+  <si>
+    <t>Business rule exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
+  </si>
+  <si>
+    <t>LogMessage_ApplicationException</t>
+  </si>
+  <si>
+    <t>System exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
+  </si>
+  <si>
+    <t>ExceptionMessage_ConsecutiveErrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+  </si>
+  <si>
+    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
+  </si>
+  <si>
+    <t>RetryNumberGetTransactionItem</t>
+  </si>
+  <si>
+    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
+  </si>
+  <si>
+    <t>RetryNumberSetTransactionStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
+  </si>
+  <si>
+    <t>ShouldMarkJobAsFaulted</t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>retryCaptcha</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>Description (Assets will always overwrite other config)</t>
+  </si>
+  <si>
+    <t>C:\Users\laxma\Downloads</t>
+  </si>
+  <si>
+    <t>TokenDetails</t>
+  </si>
+  <si>
+    <t>TokenSheet</t>
+  </si>
+  <si>
+    <t>ChallanSheet</t>
+  </si>
+  <si>
+    <t>ChallanDetails</t>
+  </si>
+  <si>
+    <t>IdentifierSheet</t>
+  </si>
+  <si>
+    <t>IdentifierDetails</t>
   </si>
   <si>
     <t>URL</t>
@@ -82,206 +255,14 @@
     <t>https://efilingigr.maharashtra.gov.in/ereg/</t>
   </si>
   <si>
-    <t>GRNPageURL</t>
-  </si>
-  <si>
-    <t>https://gras.mahakosh.gov.in/echallan/igr/</t>
-  </si>
-  <si>
-    <t>DHCPageURL</t>
-  </si>
-  <si>
-    <t>https://pay2igr.igrmaharashtra.gov.in/PTI/</t>
-  </si>
-  <si>
-    <t>PaymentPageURL</t>
-  </si>
-  <si>
-    <t>SBIePay</t>
-  </si>
-  <si>
-    <t>ilovepdf</t>
-  </si>
-  <si>
-    <t>https://www.ilovepdf.com/merge_pdf</t>
-  </si>
-  <si>
-    <t>Renewal_IndexII</t>
-  </si>
-  <si>
-    <t>renewal</t>
-  </si>
-  <si>
-    <t>IndexIISheet</t>
-  </si>
-  <si>
-    <t>IndexII</t>
-  </si>
-  <si>
-    <t>RentDetailsSheet</t>
-  </si>
-  <si>
-    <t>RentDetails</t>
-  </si>
-  <si>
-    <t>PartyDetailsSheet</t>
-  </si>
-  <si>
-    <t>PartyDetails</t>
-  </si>
-  <si>
-    <t>IdentifiersSheet</t>
-  </si>
-  <si>
-    <t>Identifiers</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Swapna@123</t>
-  </si>
-  <si>
-    <t>newTenant</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>DHC</t>
-  </si>
-  <si>
-    <t>ComplaintEmail</t>
-  </si>
-  <si>
-    <t>complaint11@igrmaharashtra.gov.in</t>
-  </si>
-  <si>
-    <t>MaxRetryNumber</t>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>MaxConsecutiveSystemExceptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
-  </si>
-  <si>
-    <t>ExScreenshotsFolderPath</t>
-  </si>
-  <si>
-    <t>Exceptions_Screenshots</t>
-  </si>
-  <si>
-    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processing Transaction Number: </t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionDataError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
-  </si>
-  <si>
-    <t>Static part of logging message. Error retrieving Transaction Data.</t>
-  </si>
-  <si>
-    <t>LogMessage_Success</t>
-  </si>
-  <si>
-    <t>Transaction Successful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
-    <t>LogMessage_BusinessRuleException</t>
-  </si>
-  <si>
-    <t>Business rule exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
-  </si>
-  <si>
-    <t>LogMessage_ApplicationException</t>
-  </si>
-  <si>
-    <t>System exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
-  </si>
-  <si>
-    <t>ExceptionMessage_ConsecutiveErrors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
-  </si>
-  <si>
-    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
-  </si>
-  <si>
-    <t>RetryNumberGetTransactionItem</t>
-  </si>
-  <si>
-    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
-  </si>
-  <si>
-    <t>RetryNumberSetTransactionStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
-  </si>
-  <si>
-    <t>ShouldMarkJobAsFaulted</t>
-  </si>
-  <si>
-    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>retryCaptcha</t>
-  </si>
-  <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>OrchestratorAssetFolder</t>
-  </si>
-  <si>
-    <t>Description (Assets will always overwrite other config)</t>
+    <t>D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -297,351 +278,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -649,253 +305,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -907,63 +321,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1221,27 +592,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="82" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.4285714285714" customWidth="1"/>
-    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,191 +646,218 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:26" s="6" customFormat="1" ht="15.75">
+      <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A5" t="s">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A6" t="s">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A7" t="s">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A8" t="s">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A10" t="s">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A14" t="s">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A23" t="s">
-        <v>35</v>
       </c>
       <c r="B23" s="2">
         <v>9011092282</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:2">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1" spans="1:2">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1" spans="1:2">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2417,32 +1815,30 @@
     <row r="987" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" location="no-back-button" display="SBIePay"/>
+    <hyperlink ref="B17" r:id="rId1" location="no-back-button" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.4285714285714" customWidth="1"/>
-    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2476,171 +1872,171 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="30" spans="1:3">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" ht="45" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A5" t="s">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A7" t="s">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A8" t="s">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A9" t="s">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
         <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A14" t="s">
-        <v>69</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="30" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:2">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -3599,39 +2995,37 @@
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="30.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="60.2857142857143" customWidth="1"/>
-    <col min="4" max="26" width="65.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3656,25 +3050,25 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1" spans="1:1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4661,6 +4055,5 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataEntry/Data/Documents/Config.xlsx
+++ b/DataEntry/Data/Documents/Config.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9981215-FC83-451C-9AF4-BABDBF2370BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -18,6 +12,19 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,18 +40,66 @@
     <t>Description</t>
   </si>
   <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://efilingigr.maharashtra.gov.in/ereg/</t>
+  </si>
+  <si>
     <t>DocsPath</t>
   </si>
   <si>
+    <t>C:\Users\laxman.deokate\Documents\UiPath\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
+  </si>
+  <si>
     <t>Downloads</t>
   </si>
   <si>
+    <t>C:\Users\laxma\Downloads</t>
+  </si>
+  <si>
     <t>DataEntryFileName</t>
   </si>
   <si>
     <t>DataEntry.xlsx</t>
   </si>
   <si>
+    <t>TokenSheet</t>
+  </si>
+  <si>
+    <t>TokenDetails</t>
+  </si>
+  <si>
+    <t>IndexIISheet</t>
+  </si>
+  <si>
+    <t>IndexII</t>
+  </si>
+  <si>
+    <t>RentDetailsSheet</t>
+  </si>
+  <si>
+    <t>RentDetails</t>
+  </si>
+  <si>
+    <t>PartyDetailsSheet</t>
+  </si>
+  <si>
+    <t>PartyDetails</t>
+  </si>
+  <si>
+    <t>IdentifierSheet</t>
+  </si>
+  <si>
+    <t>IdentifierDetails</t>
+  </si>
+  <si>
+    <t>ChallanSheet</t>
+  </si>
+  <si>
+    <t>ChallanDetails</t>
+  </si>
+  <si>
     <t>GRNPageURL</t>
   </si>
   <si>
@@ -75,24 +130,6 @@
     <t>renewal</t>
   </si>
   <si>
-    <t>IndexIISheet</t>
-  </si>
-  <si>
-    <t>IndexII</t>
-  </si>
-  <si>
-    <t>RentDetailsSheet</t>
-  </si>
-  <si>
-    <t>RentDetails</t>
-  </si>
-  <si>
-    <t>PartyDetailsSheet</t>
-  </si>
-  <si>
-    <t>PartyDetails</t>
-  </si>
-  <si>
     <t>Mobile</t>
   </si>
   <si>
@@ -226,43 +263,19 @@
   </si>
   <si>
     <t>Description (Assets will always overwrite other config)</t>
-  </si>
-  <si>
-    <t>C:\Users\laxma\Downloads</t>
-  </si>
-  <si>
-    <t>TokenDetails</t>
-  </si>
-  <si>
-    <t>TokenSheet</t>
-  </si>
-  <si>
-    <t>ChallanSheet</t>
-  </si>
-  <si>
-    <t>ChallanDetails</t>
-  </si>
-  <si>
-    <t>IdentifierSheet</t>
-  </si>
-  <si>
-    <t>IdentifierDetails</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>https://efilingigr.maharashtra.gov.in/ereg/</t>
-  </si>
-  <si>
-    <t>D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -277,27 +290,364 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -305,9 +655,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -318,23 +910,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -592,31 +1228,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="82" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.4285714285714" customWidth="1"/>
+    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -646,17 +1282,17 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" s="6" customFormat="1" ht="15.75">
-      <c r="A2" s="5" t="s">
-        <v>75</v>
+    <row r="2" s="4" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1" spans="1:26">
       <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -682,182 +1318,182 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1" spans="1:2">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
+    <row r="12" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
+    <row r="13" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>74</v>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>72</v>
+    <row r="16" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
+    <row r="17" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
+    <row r="18" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
+    <row r="19" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2">
         <v>9011092282</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1">
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+    <row r="29" ht="14.25" customHeight="1" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1">
+    <row r="30" ht="14.25" customHeight="1" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1815,30 +2451,32 @@
     <row r="987" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" location="no-back-button" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B17" r:id="rId1" location="no-back-button" display="SBIePay"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.4285714285714" customWidth="1"/>
+    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1872,171 +2510,171 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" ht="30" spans="1:3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" ht="45" spans="1:3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25" customHeight="1" spans="1:3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="30" spans="1:3">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2995,37 +3633,39 @@
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="30.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="60.2857142857143" customWidth="1"/>
+    <col min="4" max="26" width="65.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3050,25 +3690,25 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1"/>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4055,5 +4695,6 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataEntry/Data/Documents/Config.xlsx
+++ b/DataEntry/Data/Documents/Config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F90B77D-19DC-4F01-B169-9AF01A9D8D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -12,19 +18,6 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -49,9 +42,6 @@
     <t>DocsPath</t>
   </si>
   <si>
-    <t>C:\Users\laxman.deokate\Documents\UiPath\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
-  </si>
-  <si>
     <t>Downloads</t>
   </si>
   <si>
@@ -154,9 +144,6 @@
     <t>ComplaintEmail</t>
   </si>
   <si>
-    <t>complaint11@igrmaharashtra.gov.in</t>
-  </si>
-  <si>
     <t>MaxRetryNumber</t>
   </si>
   <si>
@@ -263,19 +250,19 @@
   </si>
   <si>
     <t>Description (Assets will always overwrite other config)</t>
+  </si>
+  <si>
+    <t>D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
+  </si>
+  <si>
+    <t>complaint@igrmaharashtra.gov.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -301,353 +288,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -655,253 +305,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -915,62 +323,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1228,27 +593,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="82" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.4285714285714" customWidth="1"/>
-    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +647,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" s="4" customFormat="1" ht="15.75" spans="1:2">
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="15.75">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1290,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:26">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
@@ -1318,182 +683,182 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:2">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A23" t="s">
-        <v>33</v>
       </c>
       <c r="B23" s="2">
         <v>9011092282</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:2">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A26" t="s">
+      <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A28" t="s">
-        <v>38</v>
       </c>
       <c r="B28" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1" spans="1:2">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1" spans="1:2">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+        <v>39</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2451,32 +1816,30 @@
     <row r="987" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" location="no-back-button" display="SBIePay"/>
+    <hyperlink ref="B17" r:id="rId1" location="no-back-button" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.4285714285714" customWidth="1"/>
-    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2510,171 +1873,171 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="30" spans="1:3">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" ht="45" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>56</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>64</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
         <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A14" t="s">
-        <v>67</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="30" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:2">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -3633,39 +2996,37 @@
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="30.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="60.2857142857143" customWidth="1"/>
-    <col min="4" max="26" width="65.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3690,25 +3051,25 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1" spans="1:1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4695,6 +4056,5 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataEntry/Data/Documents/Config.xlsx
+++ b/DataEntry/Data/Documents/Config.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F90B77D-19DC-4F01-B169-9AF01A9D8D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -18,11 +12,24 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -42,6 +49,9 @@
     <t>DocsPath</t>
   </si>
   <si>
+    <t>C:\Users\laxman.deokate\Documents\UiPath\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
+  </si>
+  <si>
     <t>Downloads</t>
   </si>
   <si>
@@ -144,6 +154,15 @@
     <t>ComplaintEmail</t>
   </si>
   <si>
+    <t>complaint@igrmaharashtra.gov.in</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
     <t>MaxRetryNumber</t>
   </si>
   <si>
@@ -250,19 +269,19 @@
   </si>
   <si>
     <t>Description (Assets will always overwrite other config)</t>
-  </si>
-  <si>
-    <t>D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
-  </si>
-  <si>
-    <t>complaint@igrmaharashtra.gov.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -284,20 +303,351 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -305,9 +655,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -322,20 +914,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -593,27 +1229,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="82" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.4285714285714" customWidth="1"/>
+    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +1283,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" ht="15.75">
+    <row r="2" s="4" customFormat="1" ht="15.75" spans="1:2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -655,7 +1291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1" spans="1:26">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
@@ -683,182 +1319,189 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1" spans="1:2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+    <row r="16" ht="14.25" customHeight="1" spans="1:2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+    <row r="17" ht="14.25" customHeight="1" spans="1:2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2">
         <v>9011092282</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1">
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1" spans="1:2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1" spans="1:2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+    <row r="29" ht="14.25" customHeight="1" spans="1:2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1">
+    <row r="30" ht="14.25" customHeight="1" spans="1:2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1816,30 +2459,32 @@
     <row r="987" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" location="no-back-button" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B17" r:id="rId1" location="no-back-button" display="SBIePay"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.4285714285714" customWidth="1"/>
+    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1873,171 +2518,171 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" ht="30" spans="1:3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" ht="45" spans="1:3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25" customHeight="1" spans="1:3">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="30" spans="1:3">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2996,37 +3641,39 @@
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="30.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="60.2857142857143" customWidth="1"/>
+    <col min="4" max="26" width="65.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3051,25 +3698,25 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1"/>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4056,5 +4703,6 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataEntry/Data/Documents/Config.xlsx
+++ b/DataEntry/Data/Documents/Config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03A64A6-A14B-4963-AC73-2D163A986B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -12,19 +18,6 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -49,9 +42,6 @@
     <t>DocsPath</t>
   </si>
   <si>
-    <t>C:\Users\laxman.deokate\Documents\UiPath\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
-  </si>
-  <si>
     <t>Downloads</t>
   </si>
   <si>
@@ -269,19 +259,16 @@
   </si>
   <si>
     <t>Description (Assets will always overwrite other config)</t>
+  </si>
+  <si>
+    <t>D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -301,353 +288,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -655,253 +305,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -914,64 +322,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1229,27 +591,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="82" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.4285714285714" customWidth="1"/>
-    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,15 +645,15 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" s="4" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="15.75">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:26">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
@@ -1319,189 +681,189 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:2">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A23" t="s">
-        <v>33</v>
       </c>
       <c r="B23" s="2">
         <v>9011092282</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:2">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A26" t="s">
+      <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A28" t="s">
-        <v>38</v>
       </c>
       <c r="B28" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1" spans="1:2">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1" spans="1:2">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="7" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A31" t="s">
+      <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2459,32 +1821,30 @@
     <row r="987" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" location="no-back-button" display="SBIePay"/>
+    <hyperlink ref="B17" r:id="rId1" location="no-back-button" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.4285714285714" customWidth="1"/>
-    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2518,171 +1878,171 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="30" spans="1:3">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="45">
+      <c r="A3" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="3" ht="45" spans="1:3">
-      <c r="A3" t="s">
-        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A14" t="s">
-        <v>69</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A15" t="s">
-        <v>71</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:3" ht="45">
+      <c r="A17" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="30" spans="1:3">
-      <c r="A17" t="s">
-        <v>73</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A18" t="s">
-        <v>75</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:2">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -3641,39 +3001,37 @@
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="30.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="60.2857142857143" customWidth="1"/>
-    <col min="4" max="26" width="65.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3698,25 +3056,25 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1" spans="1:1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4703,6 +4061,5 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataEntry/Data/Documents/Config.xlsx
+++ b/DataEntry/Data/Documents/Config.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03A64A6-A14B-4963-AC73-2D163A986B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -18,6 +12,19 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,6 +49,9 @@
     <t>DocsPath</t>
   </si>
   <si>
+    <t>C:\Users\laxman.deokate\Documents\UiPath\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
+  </si>
+  <si>
     <t>Downloads</t>
   </si>
   <si>
@@ -259,16 +269,19 @@
   </si>
   <si>
     <t>Description (Assets will always overwrite other config)</t>
-  </si>
-  <si>
-    <t>D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -288,16 +301,353 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -305,9 +655,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -323,17 +915,61 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -591,27 +1227,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="82" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.4285714285714" customWidth="1"/>
+    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +1281,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" ht="15.75">
+    <row r="2" s="4" customFormat="1" ht="15.75" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -653,7 +1289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" customHeight="1" spans="1:26">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
@@ -681,189 +1317,189 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1" spans="1:2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+    <row r="16" ht="14.25" customHeight="1" spans="1:2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+    <row r="17" ht="14.25" customHeight="1" spans="1:2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2">
         <v>9011092282</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1">
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1" spans="1:2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1" spans="1:2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+    <row r="29" ht="14.25" customHeight="1" spans="1:2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1">
+    <row r="30" ht="14.25" customHeight="1" spans="1:2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1">
+    <row r="31" ht="14.25" customHeight="1" spans="1:2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1821,30 +2457,32 @@
     <row r="987" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" location="no-back-button" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B17" r:id="rId1" location="no-back-button" display="SBIePay"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.4285714285714" customWidth="1"/>
+    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1878,171 +2516,171 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" ht="30" spans="1:3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" ht="45" spans="1:3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25" customHeight="1" spans="1:3">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="30" spans="1:3">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -3001,37 +3639,39 @@
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="30.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="60.2857142857143" customWidth="1"/>
+    <col min="4" max="26" width="65.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3056,25 +3696,25 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1"/>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4061,5 +4701,6 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataEntry/Data/Documents/Config.xlsx
+++ b/DataEntry/Data/Documents/Config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E3BCE6-478A-46AF-A66C-1DFB66CDAA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="6780"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -12,24 +18,11 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -49,9 +42,6 @@
     <t>DocsPath</t>
   </si>
   <si>
-    <t>C:\Users\laxman.deokate\Documents\UiPath\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
-  </si>
-  <si>
     <t>Downloads</t>
   </si>
   <si>
@@ -115,173 +105,173 @@
     <t>PaymentPageURL</t>
   </si>
   <si>
+    <t>ilovepdf</t>
+  </si>
+  <si>
+    <t>https://www.ilovepdf.com/merge_pdf</t>
+  </si>
+  <si>
+    <t>Renewal_IndexII</t>
+  </si>
+  <si>
+    <t>renewal</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Swapna@123</t>
+  </si>
+  <si>
+    <t>newTenant</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>DHC</t>
+  </si>
+  <si>
+    <t>ComplaintEmail</t>
+  </si>
+  <si>
+    <t>complaint@igrmaharashtra.gov.in</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>MaxRetryNumber</t>
+  </si>
+  <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
+  </si>
+  <si>
+    <t>MaxConsecutiveSystemExceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
+  </si>
+  <si>
+    <t>ExScreenshotsFolderPath</t>
+  </si>
+  <si>
+    <t>Exceptions_Screenshots</t>
+  </si>
+  <si>
+    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
+  </si>
+  <si>
+    <t>LogMessage_GetTransactionData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processing Transaction Number: </t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data.</t>
+  </si>
+  <si>
+    <t>LogMessage_GetTransactionDataError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
+  </si>
+  <si>
+    <t>Static part of logging message. Error retrieving Transaction Data.</t>
+  </si>
+  <si>
+    <t>LogMessage_Success</t>
+  </si>
+  <si>
+    <t>Transaction Successful.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful.</t>
+  </si>
+  <si>
+    <t>LogMessage_BusinessRuleException</t>
+  </si>
+  <si>
+    <t>Business rule exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
+  </si>
+  <si>
+    <t>LogMessage_ApplicationException</t>
+  </si>
+  <si>
+    <t>System exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
+  </si>
+  <si>
+    <t>ExceptionMessage_ConsecutiveErrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+  </si>
+  <si>
+    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
+  </si>
+  <si>
+    <t>RetryNumberGetTransactionItem</t>
+  </si>
+  <si>
+    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
+  </si>
+  <si>
+    <t>RetryNumberSetTransactionStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
+  </si>
+  <si>
+    <t>ShouldMarkJobAsFaulted</t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>retryCaptcha</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>Description (Assets will always overwrite other config)</t>
+  </si>
+  <si>
+    <t>D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents</t>
+  </si>
+  <si>
+    <t>https://epay.sbi.bank.in/secure/AggregatorHostedListener#no-back-button</t>
+  </si>
+  <si>
     <t>SBIePay</t>
-  </si>
-  <si>
-    <t>ilovepdf</t>
-  </si>
-  <si>
-    <t>https://www.ilovepdf.com/merge_pdf</t>
-  </si>
-  <si>
-    <t>Renewal_IndexII</t>
-  </si>
-  <si>
-    <t>renewal</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Swapna@123</t>
-  </si>
-  <si>
-    <t>newTenant</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>DHC</t>
-  </si>
-  <si>
-    <t>ComplaintEmail</t>
-  </si>
-  <si>
-    <t>complaint@igrmaharashtra.gov.in</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>MaxRetryNumber</t>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>MaxConsecutiveSystemExceptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
-  </si>
-  <si>
-    <t>ExScreenshotsFolderPath</t>
-  </si>
-  <si>
-    <t>Exceptions_Screenshots</t>
-  </si>
-  <si>
-    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processing Transaction Number: </t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionDataError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
-  </si>
-  <si>
-    <t>Static part of logging message. Error retrieving Transaction Data.</t>
-  </si>
-  <si>
-    <t>LogMessage_Success</t>
-  </si>
-  <si>
-    <t>Transaction Successful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
-    <t>LogMessage_BusinessRuleException</t>
-  </si>
-  <si>
-    <t>Business rule exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
-  </si>
-  <si>
-    <t>LogMessage_ApplicationException</t>
-  </si>
-  <si>
-    <t>System exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
-  </si>
-  <si>
-    <t>ExceptionMessage_ConsecutiveErrors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
-  </si>
-  <si>
-    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
-  </si>
-  <si>
-    <t>RetryNumberGetTransactionItem</t>
-  </si>
-  <si>
-    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
-  </si>
-  <si>
-    <t>RetryNumberSetTransactionStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
-  </si>
-  <si>
-    <t>ShouldMarkJobAsFaulted</t>
-  </si>
-  <si>
-    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>retryCaptcha</t>
-  </si>
-  <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>OrchestratorAssetFolder</t>
-  </si>
-  <si>
-    <t>Description (Assets will always overwrite other config)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -302,352 +292,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -655,253 +315,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -914,62 +333,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1227,27 +607,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="82" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.4285714285714" customWidth="1"/>
-    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +661,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" s="4" customFormat="1" ht="15.75" spans="1:2">
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="15.75">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1289,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:26">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
@@ -1317,205 +697,213 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:2">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A23" t="s">
-        <v>33</v>
       </c>
       <c r="B23" s="2">
         <v>9011092282</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:2">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A28" t="s">
-        <v>38</v>
       </c>
       <c r="B28" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1" spans="1:2">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1" spans="1:2">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A31" t="s">
         <v>40</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="33" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="34" spans="2:2" ht="14.25" customHeight="1">
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="36" spans="2:2" ht="14.25" customHeight="1">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:2" ht="14.25" customHeight="1">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="39" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="40" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="41" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="42" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="43" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="44" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="2:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2456,33 +1844,28 @@
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" location="no-back-button" display="SBIePay"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.4285714285714" customWidth="1"/>
-    <col min="4" max="26" width="8.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2516,171 +1899,171 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="30" spans="1:3">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" ht="45" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>66</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
         <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1" spans="1:3">
-      <c r="A14" t="s">
-        <v>69</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="30" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:2">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -3639,39 +3022,37 @@
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="30.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="60.2857142857143" customWidth="1"/>
-    <col min="4" max="26" width="65.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3696,25 +3077,25 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1" spans="1:1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4701,6 +4082,5 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>